--- a/Tabela de acoes.xlsx
+++ b/Tabela de acoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wende\OneDrive\Área de Trabalho\dados2.0\python\Imersão python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8904A24F-B8FE-4CF4-AE19-53AA3B4943ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB932629-A006-44BB-908A-67C3ADD4E285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="1043">
   <si>
     <t>Ativo</t>
   </si>
@@ -3156,6 +3156,15 @@
   </si>
   <si>
     <t>Companhia Aérea</t>
+  </si>
+  <si>
+    <t>Empresas</t>
+  </si>
+  <si>
+    <t>Segmentos</t>
+  </si>
+  <si>
+    <t>Idade</t>
   </si>
 </sst>
 </file>
@@ -3540,7 +3549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -3575,7 +3584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -3610,7 +3619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -3645,7 +3654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="12.75">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -3680,7 +3689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="12.75">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -3715,7 +3724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="12.75">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -3750,7 +3759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="12.75">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -3785,7 +3794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="12.75">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -3820,7 +3829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="12.75">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -3855,7 +3864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" ht="12.75">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
@@ -3890,7 +3899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" ht="12.75">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -3925,7 +3934,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="12.75">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
@@ -3960,7 +3969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="12.75">
       <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
@@ -3995,7 +4004,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="12.75">
       <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
@@ -4030,7 +4039,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" ht="12.75">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -4065,7 +4074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="12.75">
       <c r="A17" s="5" t="s">
         <v>41</v>
       </c>
@@ -4100,7 +4109,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="12.75">
       <c r="A18" s="2" t="s">
         <v>43</v>
       </c>
@@ -4135,7 +4144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="12.75">
       <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
@@ -4170,7 +4179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" ht="12.75">
       <c r="A20" s="2" t="s">
         <v>47</v>
       </c>
@@ -4205,7 +4214,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" ht="12.75">
       <c r="A21" s="5" t="s">
         <v>49</v>
       </c>
@@ -4240,7 +4249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" ht="12.75">
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
@@ -4275,7 +4284,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" ht="12.75">
       <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
@@ -4310,7 +4319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
@@ -4345,7 +4354,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" ht="12.75">
       <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
@@ -4380,7 +4389,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" ht="12.75">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
@@ -4415,7 +4424,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" ht="12.75">
       <c r="A27" s="5" t="s">
         <v>61</v>
       </c>
@@ -4450,7 +4459,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" ht="12.75">
       <c r="A28" s="2" t="s">
         <v>63</v>
       </c>
@@ -4485,7 +4494,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" ht="12.75">
       <c r="A29" s="5" t="s">
         <v>65</v>
       </c>
@@ -4520,7 +4529,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" ht="12.75">
       <c r="A30" s="2" t="s">
         <v>67</v>
       </c>
@@ -4555,7 +4564,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" ht="12.75">
       <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
@@ -4590,7 +4599,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" ht="12.75">
       <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
@@ -4625,7 +4634,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" ht="12.75">
       <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
@@ -4660,7 +4669,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" ht="12.75">
       <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
@@ -4695,7 +4704,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="12.75">
       <c r="A35" s="5" t="s">
         <v>77</v>
       </c>
@@ -4730,7 +4739,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" ht="12.75">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -4765,7 +4774,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="12.75">
       <c r="A37" s="5" t="s">
         <v>81</v>
       </c>
@@ -18316,10 +18325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886718A5-5541-408C-B2FD-1774F492638F}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -18329,748 +18338,748 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C1" s="11">
-        <v>68</v>
+      <c r="A1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="11" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C2" s="11">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>186</v>
+        <v>239</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C3" s="11">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
-        <v>270</v>
+        <v>186</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C4" s="11">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="11" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C5" s="11">
-        <v>26</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="11" t="s">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C6" s="11">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="11" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>1013</v>
       </c>
       <c r="C7" s="11">
-        <v>71</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="11" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C8" s="11">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="11" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="C9" s="11">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="11" t="s">
-        <v>197</v>
+        <v>254</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C10" s="11">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="11" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C11" s="11">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="11" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C12" s="11">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="11" t="s">
-        <v>194</v>
+        <v>304</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C13" s="11">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="11" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="C14" s="11">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="11" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C15" s="11">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="11" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="C16" s="11">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="11" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="C17" s="11">
-        <v>59</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="11" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="C18" s="11">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="11" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="C19" s="11">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="11" t="s">
-        <v>260</v>
+        <v>199</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C20" s="11">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="11" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="C21" s="11">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="11" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C22" s="11">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="11" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>1023</v>
       </c>
       <c r="C23" s="11">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="11" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>1023</v>
       </c>
       <c r="C24" s="11">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="11" t="s">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C25" s="11">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="11" t="s">
-        <v>216</v>
+        <v>339</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C26" s="11">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="11" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="C27" s="11">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="11" t="s">
-        <v>285</v>
+        <v>190</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="C28" s="11">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="11" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C29" s="11">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="11" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="C30" s="11">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="11" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C31" s="11">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="11" t="s">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>1013</v>
+        <v>1026</v>
       </c>
       <c r="C32" s="11">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="11" t="s">
-        <v>196</v>
+        <v>299</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="C33" s="11">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="11" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>1017</v>
       </c>
       <c r="C34" s="11">
-        <v>216</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11" t="s">
-        <v>251</v>
+        <v>213</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="C35" s="11">
-        <v>119</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="C36" s="11">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C37" s="11">
-        <v>88</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="11" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="C38" s="11">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="11" t="s">
-        <v>184</v>
+        <v>321</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="C39" s="11">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>1011</v>
+        <v>1027</v>
       </c>
       <c r="C40" s="11">
-        <v>123</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="C41" s="11">
-        <v>14</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="11" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>1015</v>
       </c>
       <c r="C42" s="11">
-        <v>70</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="C43" s="11">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="11" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="C44" s="11">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="11" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C45" s="11">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="11" t="s">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C46" s="11">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="11" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C47" s="11">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="11" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C48" s="11">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="11" t="s">
-        <v>230</v>
+        <v>332</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
       <c r="C49" s="11">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11" t="s">
-        <v>288</v>
+        <v>230</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>1015</v>
       </c>
       <c r="C50" s="11">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>1015</v>
       </c>
       <c r="C51" s="11">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="11" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>1031</v>
+        <v>1015</v>
       </c>
       <c r="C52" s="11">
-        <v>63</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C53" s="11">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11" t="s">
-        <v>119</v>
+        <v>326</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="C54" s="11">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>302</v>
+        <v>119</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C55" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11" t="s">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="C56" s="11">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11" t="s">
-        <v>356</v>
+        <v>195</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="C57" s="11">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>1015</v>
       </c>
       <c r="C58" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="11" t="s">
-        <v>295</v>
+        <v>357</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>1015</v>
       </c>
       <c r="C59" s="11">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="C60" s="11">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11" t="s">
-        <v>198</v>
+        <v>316</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="C61" s="11">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>331</v>
+        <v>198</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
       <c r="C62" s="11">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C63" s="11">
-        <v>98</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11" t="s">
-        <v>212</v>
+        <v>307</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="C64" s="11">
-        <v>33</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11" t="s">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C65" s="11">
-        <v>117</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>1016</v>
+        <v>1033</v>
       </c>
       <c r="C66" s="11">
-        <v>62</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>1034</v>
+        <v>1016</v>
       </c>
       <c r="C67" s="11">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11" t="s">
-        <v>200</v>
+        <v>287</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C68" s="11">
         <v>55</v>
@@ -19078,122 +19087,133 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="C69" s="11">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="11" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
       <c r="C70" s="11">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="11" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>1036</v>
+        <v>1017</v>
       </c>
       <c r="C71" s="11">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="11" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C72" s="11">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="11" t="s">
-        <v>185</v>
+        <v>290</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="C73" s="11">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="11" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="C74" s="11">
-        <v>112</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="11" t="s">
-        <v>259</v>
+        <v>201</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>1027</v>
       </c>
       <c r="C75" s="11">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="11" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>1027</v>
       </c>
       <c r="C76" s="11">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="11" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="C77" s="11">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="11" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C78" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C79" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B80" s="11" t="s">
         <v>1039</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C80" s="11">
         <v>23</v>
       </c>
     </row>
